--- a/TRAN_PROB.xlsx
+++ b/TRAN_PROB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zczhang5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning\FYP\KY1801\data\from lucas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F72CC9-B668-4D6B-9AC0-938B463A1279}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,12 +60,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -93,7 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,14 +371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -428,7 +429,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -454,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -462,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -474,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -532,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
